--- a/pivot-tables-wd40-demos-solutions.xlsx
+++ b/pivot-tables-wd40-demos-solutions.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\pivot-table-dashboards-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4234088E-EB84-4A91-A2D7-B1CF83A4F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF5E28F-769C-4832-83DD-2A829980E3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tips" sheetId="2" r:id="rId1"/>
     <sheet name="wholesale-customers" sheetId="1" r:id="rId2"/>
+    <sheet name="Week 1 Sales - Finish" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="44">
   <si>
     <t>Channel</t>
   </si>
@@ -121,13 +123,66 @@
   <si>
     <t>Average of tip</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sales Qty</t>
+  </si>
+  <si>
+    <t>Sales $</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Goodspeed, Gerald</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Viola, Vicente</t>
+  </si>
+  <si>
+    <t>Mathisen, Mellie</t>
+  </si>
+  <si>
+    <t>Martini, Maren</t>
+  </si>
+  <si>
+    <t>Total Units Sold</t>
+  </si>
+  <si>
+    <t>Total $ Sold</t>
+  </si>
+  <si>
+    <t>Sum of $ per unit</t>
+  </si>
+  <si>
+    <t>Donaghy, Darell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -266,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -277,7 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,11 +339,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -395,6 +467,55 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="43468.548298148147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100" xr:uid="{E5C6F3DC-EDDC-4069-829C-29B5F4290C23}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F101" sheet="Week 1 Sales - Start" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-11-12T00:00:00" maxDate="2018-11-17T00:00:00" count="5">
+        <d v="2018-11-13T00:00:00"/>
+        <d v="2018-11-12T00:00:00"/>
+        <d v="2018-11-14T00:00:00"/>
+        <d v="2018-11-15T00:00:00"/>
+        <d v="2018-11-16T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="After1112?" numFmtId="14">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Trans ID" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1134318" maxValue="9989333"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="164">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="164">
+      <sharedItems count="5">
+        <s v="Goodspeed, Gerald"/>
+        <s v="Viola, Vicente"/>
+        <s v="Mathisen, Mellie"/>
+        <s v="Martini, Maren"/>
+        <s v="Donaghy, Darell"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales Qty" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Sales $" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="100"/>
+    </cacheField>
+    <cacheField name="$ per unit" numFmtId="0" formula="ROUND('Sales $'/'Sales Qty',2)" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="440">
   <r>
@@ -7001,8 +7122,913 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="9040594"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="3158123"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="1286853"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="4649540"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="5428948"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="2298613"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="6557763"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="3436792"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="5766182"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="8334376"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="5277165"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="9989333"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="2604053"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="7063558"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="1998865"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="9799075"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="4436646"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="3169861"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="6228399"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="8737717"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="4576119"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="1303530"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="5002207"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="9077824"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="8387912"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="8813673"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="3231682"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="1437250"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="6360768"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="3335781"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="5008744"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="3455845"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="3832445"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="7995482"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="2416633"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="7056370"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="8916087"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="4862862"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="6838618"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="8191292"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="1894541"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="2562524"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="1134318"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="2612729"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="1487967"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="9059469"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="9727250"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="5540334"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="3210595"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="3536522"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="8807062"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="9473020"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="7596124"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="3104124"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="8298656"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="3107809"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="9453073"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="7359320"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="5571607"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="8736007"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="8359271"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="7699747"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="3922670"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="5541269"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="2984843"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="3910578"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="2450580"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="3158931"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="3558759"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="9799999"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="2500694"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="4609051"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="5130276"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="2409195"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="5597973"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="1911624"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="8520183"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="7934668"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="2598975"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="7408900"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="9432726"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="9371450"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="2448468"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="7465957"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="9086157"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="4775013"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="1966247"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="5430002"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="2817032"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="9311060"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="3816905"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="2539555"/>
+    <s v="A"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="2584531"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="7561019"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="2019954"/>
+    <s v="A"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <b v="1"/>
+    <n v="8746341"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="1142381"/>
+    <s v="B"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <b v="1"/>
+    <n v="9118846"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="4250085"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="5276094"/>
+    <s v="B"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="100"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C731E7F9-AF94-4E29-AFA7-F8957A25E992}" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C731E7F9-AF94-4E29-AFA7-F8957A25E992}" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I28:P34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -7105,7 +8131,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9201FB-69AE-45FF-8AE8-048B447893C5}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9201FB-69AE-45FF-8AE8-048B447893C5}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I18:J21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -7172,7 +8198,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8000D0B-548B-435E-9E86-FE6190E030A1}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8000D0B-548B-435E-9E86-FE6190E030A1}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I2:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -7255,7 +8281,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BCC7367-283B-4E5D-9C94-A43F31D35832}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BCC7367-283B-4E5D-9C94-A43F31D35832}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:L20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7267,6 +8293,112 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19117682-530C-4830-A56C-6BED9462BE70}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G13:J19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Total Units Sold" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Total $ Sold" fld="6" baseField="0" baseItem="4" numFmtId="164"/>
+    <dataField name="Sum of $ per unit" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7577,7 +8709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A5F04-C062-4D2A-AC19-36249BAF4C4A}">
   <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -7650,7 +8782,7 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J2" t="s">
@@ -7679,10 +8811,10 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3">
         <v>1627.1600000000003</v>
       </c>
     </row>
@@ -7708,10 +8840,10 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4">
         <v>1627.1600000000003</v>
       </c>
     </row>
@@ -7737,10 +8869,10 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5">
         <v>325.88</v>
       </c>
     </row>
@@ -7766,10 +8898,10 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6">
         <v>235.95999999999998</v>
       </c>
     </row>
@@ -7795,10 +8927,10 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7">
         <v>89.92</v>
       </c>
     </row>
@@ -7824,10 +8956,10 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8">
         <v>1778.3999999999996</v>
       </c>
     </row>
@@ -7853,10 +8985,10 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9">
         <v>1778.3999999999996</v>
       </c>
     </row>
@@ -7882,10 +9014,10 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10">
         <v>1096.3299999999997</v>
       </c>
     </row>
@@ -7911,10 +9043,10 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11">
         <v>18.78</v>
       </c>
     </row>
@@ -7940,10 +9072,10 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12">
         <v>1077.5499999999997</v>
       </c>
     </row>
@@ -7969,10 +9101,10 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13">
         <v>4827.7700000000004</v>
       </c>
     </row>
@@ -8044,7 +9176,7 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J16" t="s">
@@ -8096,7 +9228,7 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
@@ -8125,10 +9257,10 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19">
         <v>458.28000000000003</v>
       </c>
     </row>
@@ -8154,10 +9286,10 @@
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20">
         <v>893.61999999999978</v>
       </c>
     </row>
@@ -8183,10 +9315,10 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21">
         <v>1351.8999999999999</v>
       </c>
     </row>
@@ -8350,10 +9482,10 @@
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8379,7 +9511,7 @@
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J29">
@@ -8426,26 +9558,25 @@
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10">
+      <c r="K30">
         <v>2.8169230769230773</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30">
         <v>3.1206666666666663</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30">
         <v>4.0877777777777773</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30">
         <v>4.0466666666666669</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30">
         <v>5</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30">
         <v>3.2551315789473683</v>
       </c>
     </row>
@@ -8471,24 +9602,22 @@
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31">
         <v>1.92</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31">
         <v>2.6443749999999997</v>
       </c>
-      <c r="L31" s="10">
-        <v>3</v>
-      </c>
-      <c r="M31" s="10">
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
         <v>4.7300000000000004</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10">
+      <c r="P31">
         <v>2.7347368421052627</v>
       </c>
     </row>
@@ -8514,26 +9643,25 @@
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="10">
-        <v>1</v>
-      </c>
-      <c r="K32" s="10">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
         <v>2.517547169811321</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32">
         <v>3.7977777777777777</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32">
         <v>4.1238461538461539</v>
       </c>
-      <c r="N32" s="10">
-        <v>3</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10">
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="P32">
         <v>2.9931034482758609</v>
       </c>
     </row>
@@ -8559,28 +9687,28 @@
       <c r="G33">
         <v>4</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33">
         <v>1.83</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33">
         <v>2.4424999999999999</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33">
         <v>2.6924999999999999</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33">
         <v>4.218</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33">
         <v>5</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33">
         <v>5.3</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33">
         <v>2.7714516129032249</v>
       </c>
     </row>
@@ -8606,28 +9734,28 @@
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34">
         <v>1.4375</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34">
         <v>2.5823076923076926</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34">
         <v>3.3931578947368419</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34">
         <v>4.1354054054054048</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34">
         <v>4.0280000000000005</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34">
         <v>5.2249999999999996</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34">
         <v>2.9982786885245893</v>
       </c>
     </row>
@@ -25033,4 +26161,1950 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EC52FB-C85F-46B3-B1AD-8F930F579795}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="11.1328125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="11.1328125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="16.1328125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="11.1328125" customWidth="1"/>
+    <col min="22" max="22" width="15.86328125" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17">
+        <v>69</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17">
+        <v>91</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>53</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17">
+        <v>74</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17">
+        <v>96</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17">
+        <v>91</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17">
+        <v>82</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4</v>
+      </c>
+      <c r="E9" s="17">
+        <v>65</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="17">
+        <v>4</v>
+      </c>
+      <c r="E10" s="17">
+        <v>92</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17">
+        <v>70</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>73</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17">
+        <v>58</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17">
+        <v>87</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19">
+        <v>43416</v>
+      </c>
+      <c r="H14">
+        <v>87</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1630</v>
+      </c>
+      <c r="J14" s="17">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="17">
+        <v>6</v>
+      </c>
+      <c r="E15" s="17">
+        <v>83</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19">
+        <v>43417</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1500</v>
+      </c>
+      <c r="J15" s="17">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>61</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19">
+        <v>43418</v>
+      </c>
+      <c r="H16">
+        <v>105</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1869</v>
+      </c>
+      <c r="J16" s="17">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>85</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19">
+        <v>43419</v>
+      </c>
+      <c r="H17">
+        <v>72</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1315</v>
+      </c>
+      <c r="J17" s="17">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="17">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17">
+        <v>70</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19">
+        <v>43420</v>
+      </c>
+      <c r="H18">
+        <v>75</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1201</v>
+      </c>
+      <c r="J18" s="17">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="17">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17">
+        <v>85</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>429</v>
+      </c>
+      <c r="I19" s="17">
+        <v>7515</v>
+      </c>
+      <c r="J19" s="17">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="17">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17">
+        <v>88</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17">
+        <v>6</v>
+      </c>
+      <c r="E21" s="17">
+        <v>97</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="17">
+        <v>6</v>
+      </c>
+      <c r="E22" s="17">
+        <v>87</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="17">
+        <v>6</v>
+      </c>
+      <c r="E23" s="17">
+        <v>79</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="17">
+        <v>5</v>
+      </c>
+      <c r="E24" s="17">
+        <v>87</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="17">
+        <v>4</v>
+      </c>
+      <c r="E25" s="17">
+        <v>63</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17">
+        <v>77</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>61</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="17">
+        <v>5</v>
+      </c>
+      <c r="E28" s="17">
+        <v>89</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="17">
+        <v>6</v>
+      </c>
+      <c r="E29" s="17">
+        <v>73</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="17">
+        <v>6</v>
+      </c>
+      <c r="E30" s="17">
+        <v>90</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="17">
+        <v>3</v>
+      </c>
+      <c r="E31" s="17">
+        <v>61</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="17">
+        <v>6</v>
+      </c>
+      <c r="E32" s="17">
+        <v>54</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="17">
+        <v>5</v>
+      </c>
+      <c r="E33" s="17">
+        <v>76</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="17">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17">
+        <v>54</v>
+      </c>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="17">
+        <v>5</v>
+      </c>
+      <c r="E35" s="17">
+        <v>81</v>
+      </c>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="17">
+        <v>3</v>
+      </c>
+      <c r="E36" s="17">
+        <v>98</v>
+      </c>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="17">
+        <v>2</v>
+      </c>
+      <c r="E37" s="17">
+        <v>72</v>
+      </c>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="17">
+        <v>6</v>
+      </c>
+      <c r="E38" s="17">
+        <v>66</v>
+      </c>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="17">
+        <v>5</v>
+      </c>
+      <c r="E39" s="17">
+        <v>97</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="17">
+        <v>2</v>
+      </c>
+      <c r="E40" s="17">
+        <v>73</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="17">
+        <v>5</v>
+      </c>
+      <c r="E41" s="17">
+        <v>80</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="17">
+        <v>5</v>
+      </c>
+      <c r="E42" s="17">
+        <v>71</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="17">
+        <v>6</v>
+      </c>
+      <c r="E43" s="17">
+        <v>55</v>
+      </c>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="17">
+        <v>90</v>
+      </c>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="17">
+        <v>6</v>
+      </c>
+      <c r="E45" s="17">
+        <v>97</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2</v>
+      </c>
+      <c r="E46" s="17">
+        <v>85</v>
+      </c>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="17">
+        <v>4</v>
+      </c>
+      <c r="E47" s="17">
+        <v>52</v>
+      </c>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="17">
+        <v>5</v>
+      </c>
+      <c r="E48" s="17">
+        <v>53</v>
+      </c>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="17">
+        <v>5</v>
+      </c>
+      <c r="E49" s="17">
+        <v>54</v>
+      </c>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="17">
+        <v>6</v>
+      </c>
+      <c r="E50" s="17">
+        <v>86</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="17">
+        <v>4</v>
+      </c>
+      <c r="E51" s="17">
+        <v>89</v>
+      </c>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="17">
+        <v>4</v>
+      </c>
+      <c r="E52" s="17">
+        <v>51</v>
+      </c>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2</v>
+      </c>
+      <c r="E53" s="17">
+        <v>56</v>
+      </c>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="17">
+        <v>5</v>
+      </c>
+      <c r="E54" s="17">
+        <v>70</v>
+      </c>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="17">
+        <v>6</v>
+      </c>
+      <c r="E55" s="17">
+        <v>84</v>
+      </c>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="17">
+        <v>4</v>
+      </c>
+      <c r="E56" s="17">
+        <v>70</v>
+      </c>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="17">
+        <v>3</v>
+      </c>
+      <c r="E57" s="17">
+        <v>53</v>
+      </c>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="17">
+        <v>2</v>
+      </c>
+      <c r="E58" s="17">
+        <v>98</v>
+      </c>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="17">
+        <v>5</v>
+      </c>
+      <c r="E59" s="17">
+        <v>80</v>
+      </c>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="17">
+        <v>6</v>
+      </c>
+      <c r="E60" s="17">
+        <v>82</v>
+      </c>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="17">
+        <v>5</v>
+      </c>
+      <c r="E61" s="17">
+        <v>52</v>
+      </c>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="17">
+        <v>6</v>
+      </c>
+      <c r="E62" s="17">
+        <v>67</v>
+      </c>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="17">
+        <v>4</v>
+      </c>
+      <c r="E63" s="17">
+        <v>51</v>
+      </c>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="17">
+        <v>2</v>
+      </c>
+      <c r="E64" s="17">
+        <v>79</v>
+      </c>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="17">
+        <v>3</v>
+      </c>
+      <c r="E65" s="17">
+        <v>66</v>
+      </c>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="17">
+        <v>4</v>
+      </c>
+      <c r="E66" s="17">
+        <v>83</v>
+      </c>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="17">
+        <v>6</v>
+      </c>
+      <c r="E67" s="17">
+        <v>89</v>
+      </c>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="17">
+        <v>4</v>
+      </c>
+      <c r="E68" s="17">
+        <v>73</v>
+      </c>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="17">
+        <v>6</v>
+      </c>
+      <c r="E69" s="17">
+        <v>50</v>
+      </c>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="17">
+        <v>3</v>
+      </c>
+      <c r="E70" s="17">
+        <v>85</v>
+      </c>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="17">
+        <v>4</v>
+      </c>
+      <c r="E71" s="17">
+        <v>73</v>
+      </c>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="17">
+        <v>3</v>
+      </c>
+      <c r="E72" s="17">
+        <v>91</v>
+      </c>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="17">
+        <v>3</v>
+      </c>
+      <c r="E73" s="17">
+        <v>72</v>
+      </c>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="17">
+        <v>6</v>
+      </c>
+      <c r="E74" s="17">
+        <v>73</v>
+      </c>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="17">
+        <v>5</v>
+      </c>
+      <c r="E75" s="17">
+        <v>60</v>
+      </c>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="17">
+        <v>2</v>
+      </c>
+      <c r="E76" s="17">
+        <v>83</v>
+      </c>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="17">
+        <v>4</v>
+      </c>
+      <c r="E77" s="17">
+        <v>51</v>
+      </c>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="17">
+        <v>4</v>
+      </c>
+      <c r="E78" s="17">
+        <v>67</v>
+      </c>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="17">
+        <v>4</v>
+      </c>
+      <c r="E79" s="17">
+        <v>72</v>
+      </c>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="17">
+        <v>5</v>
+      </c>
+      <c r="E80" s="17">
+        <v>53</v>
+      </c>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="17">
+        <v>5</v>
+      </c>
+      <c r="E81" s="17">
+        <v>56</v>
+      </c>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="17">
+        <v>3</v>
+      </c>
+      <c r="E82" s="17">
+        <v>99</v>
+      </c>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="17">
+        <v>3</v>
+      </c>
+      <c r="E83" s="17">
+        <v>85</v>
+      </c>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="17">
+        <v>6</v>
+      </c>
+      <c r="E84" s="17">
+        <v>82</v>
+      </c>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="17">
+        <v>4</v>
+      </c>
+      <c r="E85" s="17">
+        <v>79</v>
+      </c>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="17">
+        <v>2</v>
+      </c>
+      <c r="E86" s="17">
+        <v>66</v>
+      </c>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="17">
+        <v>5</v>
+      </c>
+      <c r="E87" s="17">
+        <v>79</v>
+      </c>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="17">
+        <v>4</v>
+      </c>
+      <c r="E88" s="17">
+        <v>58</v>
+      </c>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="17">
+        <v>2</v>
+      </c>
+      <c r="E89" s="17">
+        <v>66</v>
+      </c>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="17">
+        <v>4</v>
+      </c>
+      <c r="E90" s="17">
+        <v>67</v>
+      </c>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="17">
+        <v>5</v>
+      </c>
+      <c r="E91" s="17">
+        <v>84</v>
+      </c>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="17">
+        <v>5</v>
+      </c>
+      <c r="E92" s="17">
+        <v>94</v>
+      </c>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="17">
+        <v>4</v>
+      </c>
+      <c r="E93" s="17">
+        <v>99</v>
+      </c>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="17">
+        <v>3</v>
+      </c>
+      <c r="E94" s="17">
+        <v>86</v>
+      </c>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="17">
+        <v>5</v>
+      </c>
+      <c r="E95" s="17">
+        <v>76</v>
+      </c>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="16">
+        <v>43416</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="17">
+        <v>4</v>
+      </c>
+      <c r="E96" s="17">
+        <v>99</v>
+      </c>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="16">
+        <v>43420</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="17">
+        <v>6</v>
+      </c>
+      <c r="E97" s="17">
+        <v>68</v>
+      </c>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="16">
+        <v>43418</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="17">
+        <v>5</v>
+      </c>
+      <c r="E98" s="17">
+        <v>95</v>
+      </c>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="16">
+        <v>43419</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="17">
+        <v>3</v>
+      </c>
+      <c r="E99" s="17">
+        <v>69</v>
+      </c>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="17">
+        <v>6</v>
+      </c>
+      <c r="E100" s="17">
+        <v>54</v>
+      </c>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="16">
+        <v>43417</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="17">
+        <v>6</v>
+      </c>
+      <c r="E101" s="17">
+        <v>100</v>
+      </c>
+      <c r="F101" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>